--- a/SampleSpreadSheetApp/assets/files/Child1WorkbookData.xlsx
+++ b/SampleSpreadSheetApp/assets/files/Child1WorkbookData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Monday</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>Tuesday</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>un</t>
   </si>
   <si>
     <t>Total</t>
@@ -107,11 +113,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" relativeIndent="0" readingOrder="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" relativeIndent="0" readingOrder="0"/>
       <protection locked="0"/>
@@ -429,10 +437,10 @@
     <outlinePr/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="$E$7" sqref="$E$7:$E$7"/>
+      <selection activeCell="$I$10" sqref="$I$10:$I$10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -444,120 +452,195 @@
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625"/>
+    <col min="8" max="11" width="34" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
         <v>150</v>
       </c>
-      <c r="C2" s="2">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="4">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4">
         <v>29</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
+      <c r="E2" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4">
+        <v>200</v>
+      </c>
+      <c r="G2" s="4">
+        <v>100</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <f>SUM(B1:B3)</f>
-        <v>150</v>
-      </c>
-      <c r="C4" s="1">
-        <f>SUM(C1:C3)</f>
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <f>SUM(D1:D3)</f>
-        <v>29</v>
-      </c>
-      <c r="E4" s="1">
-        <f>SUM(E1:E3)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <f>SUM(F1:F3)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <f>SUM(G1:G3)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f>SUM(H1:H3)</f>
-        <v>0</v>
-      </c>
+      <c r="B4" s="4">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>90</v>
+      </c>
+      <c r="E4" s="4">
+        <v>80</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>90</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4">
+        <v>100</v>
+      </c>
+      <c r="I5" s="4">
+        <v>100</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>700</v>
+      </c>
+      <c r="E6" s="2">
+        <v>900</v>
+      </c>
+      <c r="F6" s="2">
+        <v>700</v>
+      </c>
+      <c r="G6" s="2">
+        <v>800</v>
+      </c>
+      <c r="H6" s="2">
+        <v>70</v>
+      </c>
+      <c r="I6" s="2">
+        <v>100</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
   </sheetData>
   <sheetProtection/>

--- a/SampleSpreadSheetApp/assets/files/Child1WorkbookData.xlsx
+++ b/SampleSpreadSheetApp/assets/files/Child1WorkbookData.xlsx
@@ -14,14 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Monday</t>
   </si>
   <si>
+    <t>Min</t>
+  </si>
+  <si>
     <t>Products</t>
   </si>
   <si>
+    <t>po</t>
+  </si>
+  <si>
     <t>Tuesday</t>
   </si>
   <si>
@@ -49,7 +55,13 @@
     <t>Bottled Beer</t>
   </si>
   <si>
+    <t>pass</t>
+  </si>
+  <si>
     <t>Thursday</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
   <si>
     <t>Sunday</t>
@@ -437,10 +449,10 @@
     <outlinePr/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="$I$10" sqref="$I$10:$I$10"/>
+      <selection activeCell="$C$17" sqref="$C$17:$C$17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -458,41 +470,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4">
         <v>10</v>
@@ -501,7 +513,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F2" s="4">
         <v>200</v>
@@ -520,7 +532,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -551,7 +563,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>9</v>
@@ -582,7 +594,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4">
         <v>90</v>
@@ -612,35 +624,167 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C6" s="2">
-        <v>700</v>
-      </c>
-      <c r="D6" s="2">
-        <v>700</v>
-      </c>
-      <c r="E6" s="2">
-        <v>900</v>
-      </c>
-      <c r="F6" s="2">
-        <v>700</v>
-      </c>
-      <c r="G6" s="2">
-        <v>800</v>
-      </c>
-      <c r="H6" s="2">
-        <v>70</v>
-      </c>
-      <c r="I6" s="2">
-        <v>100</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <v>200</v>
+      </c>
+      <c r="C6" s="4">
+        <v>100</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="4">
+        <v>100</v>
+      </c>
+      <c r="F6" s="4">
+        <v>100</v>
+      </c>
+      <c r="G6" s="4">
+        <v>100</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>100</v>
+      </c>
+      <c r="C7" s="4">
+        <v>100</v>
+      </c>
+      <c r="D7" s="4">
+        <v>200</v>
+      </c>
+      <c r="E7" s="4">
+        <v>100</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4">
+        <v>100</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4">
+        <v>123</v>
+      </c>
+      <c r="C8" s="4">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4">
+        <v>11</v>
+      </c>
+      <c r="I8" s="4">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>100</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
+        <v>100</v>
+      </c>
+      <c r="E9" s="4">
+        <v>200</v>
+      </c>
+      <c r="F9" s="4">
+        <v>100</v>
+      </c>
+      <c r="G9" s="4">
+        <v>200</v>
+      </c>
+      <c r="H9" s="4">
+        <v>100</v>
+      </c>
+      <c r="I9" s="4">
+        <v>100</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <f>SUM(B1:B9)</f>
+        <v>774</v>
+      </c>
+      <c r="C10" s="2">
+        <f>SUM(C1:C9)</f>
+        <v>252</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM(D1:D9)</f>
+        <v>1441</v>
+      </c>
+      <c r="E10" s="2">
+        <f>SUM(E1:E9)</f>
+        <v>634</v>
+      </c>
+      <c r="F10" s="2">
+        <f>SUM(F1:F9)</f>
+        <v>534</v>
+      </c>
+      <c r="G10" s="2">
+        <f>SUM(G1:G9)</f>
+        <v>431</v>
+      </c>
+      <c r="H10" s="2">
+        <f>SUM(H1:H9)</f>
+        <v>1221</v>
+      </c>
+      <c r="I10" s="2">
+        <f>SUM(I1:I9)</f>
+        <v>2341</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
   </sheetData>
   <sheetProtection/>
